--- a/documentation/133_GESTPROJ_ALILI_Sami.xlsx
+++ b/documentation/133_GESTPROJ_ALILI_Sami.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/sami_alili_studentfr_ch/Documents/Fichiers de conversation Microsoft Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{6E5769AB-0C30-4CF8-89D0-1E502CE6B5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CABD7F98-0294-4CFE-842B-5E568D7410B1}"/>
+  <xr:revisionPtr revIDLastSave="644" documentId="13_ncr:1_{6E5769AB-0C30-4CF8-89D0-1E502CE6B5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5780FFD3-A077-4B66-9AE2-C4D2518883E5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>Planning</t>
   </si>
@@ -301,14 +301,149 @@
     </r>
   </si>
   <si>
+    <t>Création des maquettes</t>
+  </si>
+  <si>
+    <t>Diagramme de navigation</t>
+  </si>
+  <si>
+    <t>Schémas DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagramme de navigation </t>
+  </si>
+  <si>
+    <t>Schéma ER</t>
+  </si>
+  <si>
+    <t>Schéma ER DB</t>
+  </si>
+  <si>
+    <t>Exercices</t>
+  </si>
+  <si>
+    <t>Documentation de l'analyse + conception</t>
+  </si>
+  <si>
+    <t>Schéma Workbench</t>
+  </si>
+  <si>
+    <t>Réalisation des diagrammes de classes</t>
+  </si>
+  <si>
+    <t>documentation DB</t>
+  </si>
+  <si>
+    <t>diagramme de classe</t>
+  </si>
+  <si>
+    <t>Documentation des diagrammes de classes</t>
+  </si>
+  <si>
+    <t>Création projet + implémentation rest2</t>
+  </si>
+  <si>
+    <t>Correction des diagrammes de classes Rest 1 et 2</t>
+  </si>
+  <si>
+    <t>Début implémentation</t>
+  </si>
+  <si>
+    <t>modification diagramme DB</t>
+  </si>
+  <si>
+    <t>implémentation Rest 1</t>
+  </si>
+  <si>
+    <t>implémentation API GW</t>
+  </si>
+  <si>
+    <t>Implémentation rest2</t>
+  </si>
+  <si>
+    <t>Problème lors du lancement de l'app rest2</t>
+  </si>
+  <si>
+    <t>Documentation des diagrammes de navigations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Problème lors du lancement de l'app rest2 </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>résolu</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">implémentation des requête vers le rest2 </t>
+  </si>
+  <si>
+    <t>correction du getCompetitions</t>
+  </si>
+  <si>
+    <t>Implémentation client2</t>
+  </si>
+  <si>
+    <t>Test de tout le backend + correction</t>
+  </si>
+  <si>
+    <t>finalisation du backend</t>
+  </si>
+  <si>
+    <t>début implémentation frontend</t>
+  </si>
+  <si>
+    <t>problème : la gestion de session entre l'application client et le backend</t>
+  </si>
+  <si>
+    <t>Correction du Rest2</t>
+  </si>
+  <si>
+    <t>Correction méthode getVotes dans le CtrlRest2</t>
+  </si>
+  <si>
+    <t>Alili Sami, Marinazzo Matteo</t>
+  </si>
+  <si>
+    <t>finalisation du frontent</t>
+  </si>
+  <si>
+    <t>correction du desincrire dans backend</t>
+  </si>
+  <si>
+    <t>Correction des problèmes de sessions</t>
+  </si>
+  <si>
+    <t>Documentation de projet</t>
+  </si>
+  <si>
+    <t>Test de l'application</t>
+  </si>
+  <si>
+    <r>
       <t>·</t>
     </r>
     <r>
@@ -331,38 +466,26 @@
     </r>
   </si>
   <si>
-    <t>Création des maquettes</t>
-  </si>
-  <si>
-    <t>Diagramme de navigation</t>
-  </si>
-  <si>
-    <t>Schémas DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagramme de navigation </t>
-  </si>
-  <si>
-    <t>Schéma ER</t>
-  </si>
-  <si>
-    <t>Schéma ER DB</t>
-  </si>
-  <si>
-    <t>Exercices</t>
-  </si>
-  <si>
-    <t>Documentation de l'analyse + conception</t>
-  </si>
-  <si>
-    <t>Schéma Workbench</t>
+    <t xml:space="preserve">petites corrections sur le client </t>
+  </si>
+  <si>
+    <t>gestion de projet</t>
+  </si>
+  <si>
+    <t>test de l'application</t>
+  </si>
+  <si>
+    <t>RP 133</t>
+  </si>
+  <si>
+    <t>documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +606,46 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -515,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -769,11 +932,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -902,13 +1076,57 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1224,69 +1442,72 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A6" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="8" customWidth="1"/>
     <col min="11" max="16" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="B3" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
       <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="50">
-        <v>300233</v>
-      </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="61">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
+      <c r="B4" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1296,31 +1517,31 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48" t="s">
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48" t="s">
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
@@ -1530,7 +1751,7 @@
     </row>
     <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
@@ -1540,7 +1761,9 @@
       <c r="G16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="I16" s="24"/>
       <c r="J16" s="25"/>
       <c r="K16" s="23"/>
@@ -1552,7 +1775,7 @@
     </row>
     <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
@@ -1582,7 +1805,9 @@
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="I18" s="21"/>
       <c r="J18" s="25"/>
       <c r="K18" s="23"/>
@@ -1602,14 +1827,30 @@
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="24"/>
+      <c r="H19" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="P19" s="25"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1627,10 +1868,16 @@
       <c r="J20" s="25"/>
       <c r="K20" s="23"/>
       <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="N20" s="23"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="25"/>
+      <c r="O20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -1650,7 +1897,9 @@
       <c r="M21" s="28"/>
       <c r="N21" s="26"/>
       <c r="O21" s="29"/>
-      <c r="P21" s="30"/>
+      <c r="P21" s="30" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
@@ -1666,24 +1915,31 @@
       <c r="G22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="34"/>
+      <c r="H22" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="L22" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="M22" s="35"/>
       <c r="N22" s="34"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="35"/>
+      <c r="O22" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="35" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="L3:M3"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="E7:G7"/>
@@ -1702,28 +1958,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A9" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A18" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="75.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1731,8 +1989,9 @@
         <v>31</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1740,8 +1999,9 @@
         <v>30</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1752,182 +2012,423 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
         <v>45740</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="53">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>45740</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>45740</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C10" s="13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>45740</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <v>45740</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C12" s="47">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48">
         <v>45740</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B13" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C13" s="52">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+      <c r="D13" s="54">
+        <f>SUM(C8:C13)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
         <v>45741</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C14" s="41">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>45741</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>45741</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>45741</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>45741</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C17" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="48">
+        <v>45741</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="52">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="D18" s="54">
+        <f>SUM(C14:C18)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>45747</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="51">
+        <v>45747</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="51">
+        <v>45747</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="51">
+        <v>45747</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="48">
+        <v>45747</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="52">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42">
+        <v>45748</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="44">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="51">
+        <v>45754</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="51">
+        <v>45754</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48">
+        <v>45754</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="51">
+        <v>45755</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48">
+        <v>45755</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="51">
+        <v>45761</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>45761</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>45761</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>45761</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>45761</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="48">
+        <v>45761</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>45762</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>45762</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>45762</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>45762</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="13">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="13">
-        <f>SUM(C8:C21)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="13">
+        <f>SUM(C8:C40)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="C45" s="16"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
         <v>19</v>
       </c>
+      <c r="C48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LModule 133&amp;RJournal de travail</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
@@ -1940,10 +2441,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,11 +2455,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1995,7 +2496,7 @@
         <v>45740</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="13">
         <v>3.5</v>
@@ -2061,7 +2562,7 @@
         <v>45741</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="41">
         <v>0.5</v>
@@ -2072,7 +2573,7 @@
         <v>45741</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="13">
         <v>2</v>
@@ -2083,7 +2584,7 @@
         <v>45741</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="13">
         <v>0.25</v>
@@ -2094,7 +2595,7 @@
         <v>45741</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="13">
         <v>0.5</v>
@@ -2115,61 +2616,314 @@
       <c r="A19" s="39">
         <v>45747</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A22" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="13">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42">
+        <v>45747</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>45748</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42">
+        <v>45748</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>45754</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>45754</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>45754</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>45754</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
+        <v>45754</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>45755</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>45755</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42">
+        <v>45755</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>45761</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="13">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>45761</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>45761</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>45761</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>45761</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="13">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42">
+        <v>45761</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="44">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>45762</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>45762</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>45762</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42">
+        <v>45762</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="13">
-        <f>SUM(C8:C22)</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="13">
+        <f>SUM(C8:C43)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="37" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2177,6 +2931,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
@@ -2187,6 +2942,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
@@ -2242,7 +3006,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="35" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c91a1a7a62e987314df808fa39da4b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3023738844047246cab05fc3830165" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2696,34 +3460,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2741,12 +3504,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>